--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="要件定義書" sheetId="4" r:id="rId1"/>
+    <sheet name="表紙" sheetId="5" r:id="rId1"/>
+    <sheet name="要件定義書" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">要件定義書!$A$1:$C$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -890,7 +891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +944,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1100,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,6 +1182,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1488,12 +1501,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="24" customFormat="1" ht="55.5">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1503,9 +1536,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A1" s="15"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
